--- a/Processed_Trade.xlsx
+++ b/Processed_Trade.xlsx
@@ -699,10 +699,10 @@
         </is>
       </c>
       <c r="AC2" t="n">
-        <v>6</v>
+        <v>251.22</v>
       </c>
       <c r="AD2" t="n">
-        <v>6.978333333333333</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="3">
@@ -819,10 +819,10 @@
         </is>
       </c>
       <c r="AC3" t="n">
-        <v>20</v>
+        <v>1816</v>
       </c>
       <c r="AD3" t="n">
-        <v>4.54</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="4">
@@ -939,10 +939,10 @@
         </is>
       </c>
       <c r="AC4" t="n">
-        <v>7</v>
+        <v>305.76</v>
       </c>
       <c r="AD4" t="n">
-        <v>6.24</v>
+        <v>0.1428571428571428</v>
       </c>
     </row>
     <row r="5">
@@ -1059,10 +1059,10 @@
         </is>
       </c>
       <c r="AC5" t="n">
-        <v>94</v>
+        <v>14505.14</v>
       </c>
       <c r="AD5" t="n">
-        <v>1.641595744680851</v>
+        <v>0.01063829787234043</v>
       </c>
     </row>
     <row r="6">
@@ -1179,10 +1179,10 @@
         </is>
       </c>
       <c r="AC6" t="n">
-        <v>37</v>
+        <v>4608.72</v>
       </c>
       <c r="AD6" t="n">
-        <v>3.366486486486487</v>
+        <v>0.02702702702702703</v>
       </c>
     </row>
     <row r="7">
@@ -1299,10 +1299,10 @@
         </is>
       </c>
       <c r="AC7" t="n">
-        <v>26</v>
+        <v>2101.84</v>
       </c>
       <c r="AD7" t="n">
-        <v>3.109230769230769</v>
+        <v>0.03846153846153846</v>
       </c>
     </row>
     <row r="8">
@@ -1419,10 +1419,10 @@
         </is>
       </c>
       <c r="AC8" t="n">
-        <v>53</v>
+        <v>11689.15</v>
       </c>
       <c r="AD8" t="n">
-        <v>4.161320754716981</v>
+        <v>0.01886792452830189</v>
       </c>
     </row>
     <row r="9">
@@ -1539,10 +1539,10 @@
         </is>
       </c>
       <c r="AC9" t="n">
-        <v>64</v>
+        <v>8694.4</v>
       </c>
       <c r="AD9" t="n">
-        <v>2.12265625</v>
+        <v>0.015625</v>
       </c>
     </row>
     <row r="10">
@@ -1659,10 +1659,10 @@
         </is>
       </c>
       <c r="AC10" t="n">
-        <v>18</v>
+        <v>4068.72</v>
       </c>
       <c r="AD10" t="n">
-        <v>12.55777777777778</v>
+        <v>0.05555555555555556</v>
       </c>
     </row>
     <row r="11">
@@ -1779,10 +1779,10 @@
         </is>
       </c>
       <c r="AC11" t="n">
-        <v>11</v>
+        <v>262.13</v>
       </c>
       <c r="AD11" t="n">
-        <v>2.166363636363636</v>
+        <v>0.0909090909090909</v>
       </c>
     </row>
     <row r="12">
@@ -1899,10 +1899,10 @@
         </is>
       </c>
       <c r="AC12" t="n">
-        <v>135</v>
+        <v>4526.55</v>
       </c>
       <c r="AD12" t="n">
-        <v>0.2483703703703704</v>
+        <v>0.007407407407407408</v>
       </c>
     </row>
     <row r="13">
@@ -2019,10 +2019,10 @@
         </is>
       </c>
       <c r="AC13" t="n">
-        <v>53</v>
+        <v>7968.549999999999</v>
       </c>
       <c r="AD13" t="n">
-        <v>2.836792452830188</v>
+        <v>0.01886792452830189</v>
       </c>
     </row>
     <row r="14">
@@ -2139,10 +2139,10 @@
         </is>
       </c>
       <c r="AC14" t="n">
-        <v>26</v>
+        <v>3139.5</v>
       </c>
       <c r="AD14" t="n">
-        <v>4.644230769230769</v>
+        <v>0.03846153846153846</v>
       </c>
     </row>
     <row r="15">
@@ -2259,10 +2259,10 @@
         </is>
       </c>
       <c r="AC15" t="n">
-        <v>180</v>
+        <v>3769.2</v>
       </c>
       <c r="AD15" t="n">
-        <v>0.1163333333333333</v>
+        <v>0.005555555555555556</v>
       </c>
     </row>
     <row r="16">
@@ -2379,10 +2379,10 @@
         </is>
       </c>
       <c r="AC16" t="n">
-        <v>91</v>
+        <v>27930.63</v>
       </c>
       <c r="AD16" t="n">
-        <v>3.372857142857143</v>
+        <v>0.01098901098901099</v>
       </c>
     </row>
     <row r="17">
@@ -2499,10 +2499,10 @@
         </is>
       </c>
       <c r="AC17" t="n">
-        <v>36</v>
+        <v>7080.48</v>
       </c>
       <c r="AD17" t="n">
-        <v>5.463333333333334</v>
+        <v>0.02777777777777778</v>
       </c>
     </row>
     <row r="18">
@@ -2619,10 +2619,10 @@
         </is>
       </c>
       <c r="AC18" t="n">
-        <v>12</v>
+        <v>300.6</v>
       </c>
       <c r="AD18" t="n">
-        <v>2.0875</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="19">
@@ -2739,10 +2739,10 @@
         </is>
       </c>
       <c r="AC19" t="n">
-        <v>18</v>
+        <v>2828.52</v>
       </c>
       <c r="AD19" t="n">
-        <v>8.729999999999999</v>
+        <v>0.05555555555555556</v>
       </c>
     </row>
     <row r="20">
@@ -2859,10 +2859,10 @@
         </is>
       </c>
       <c r="AC20" t="n">
-        <v>7</v>
+        <v>232.96</v>
       </c>
       <c r="AD20" t="n">
-        <v>4.754285714285714</v>
+        <v>0.1428571428571428</v>
       </c>
     </row>
     <row r="21">
@@ -2979,10 +2979,10 @@
         </is>
       </c>
       <c r="AC21" t="n">
-        <v>9</v>
+        <v>207.45</v>
       </c>
       <c r="AD21" t="n">
-        <v>2.561111111111111</v>
+        <v>0.1111111111111111</v>
       </c>
     </row>
     <row r="22">
@@ -3099,10 +3099,10 @@
         </is>
       </c>
       <c r="AC22" t="n">
-        <v>3</v>
+        <v>75.84</v>
       </c>
       <c r="AD22" t="n">
-        <v>8.426666666666668</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="23">
@@ -3219,10 +3219,10 @@
         </is>
       </c>
       <c r="AC23" t="n">
-        <v>11</v>
+        <v>276.32</v>
       </c>
       <c r="AD23" t="n">
-        <v>2.283636363636364</v>
+        <v>0.09090909090909091</v>
       </c>
     </row>
     <row r="24">
@@ -3339,10 +3339,10 @@
         </is>
       </c>
       <c r="AC24" t="n">
-        <v>229</v>
+        <v>29488.33</v>
       </c>
       <c r="AD24" t="n">
-        <v>0.5623144104803494</v>
+        <v>0.004366812227074236</v>
       </c>
     </row>
     <row r="25">
@@ -3459,10 +3459,10 @@
         </is>
       </c>
       <c r="AC25" t="n">
-        <v>6</v>
+        <v>121.56</v>
       </c>
       <c r="AD25" t="n">
-        <v>3.376666666666667</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="26">
@@ -3579,10 +3579,10 @@
         </is>
       </c>
       <c r="AC26" t="n">
-        <v>10</v>
+        <v>559</v>
       </c>
       <c r="AD26" t="n">
-        <v>5.59</v>
+        <v>0.09999999999999999</v>
       </c>
     </row>
     <row r="27">
@@ -3699,10 +3699,10 @@
         </is>
       </c>
       <c r="AC27" t="n">
-        <v>53</v>
+        <v>5437.27</v>
       </c>
       <c r="AD27" t="n">
-        <v>1.935660377358491</v>
+        <v>0.01886792452830189</v>
       </c>
     </row>
     <row r="28">
@@ -3819,10 +3819,10 @@
         </is>
       </c>
       <c r="AC28" t="n">
-        <v>4</v>
+        <v>113.8</v>
       </c>
       <c r="AD28" t="n">
-        <v>7.1125</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="29">
@@ -3939,10 +3939,10 @@
         </is>
       </c>
       <c r="AC29" t="n">
-        <v>5</v>
+        <v>204.25</v>
       </c>
       <c r="AD29" t="n">
-        <v>8.17</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="30">
@@ -4059,10 +4059,10 @@
         </is>
       </c>
       <c r="AC30" t="n">
-        <v>36</v>
+        <v>5599.44</v>
       </c>
       <c r="AD30" t="n">
-        <v>4.320555555555555</v>
+        <v>0.02777777777777778</v>
       </c>
     </row>
     <row r="31">
@@ -4179,10 +4179,10 @@
         </is>
       </c>
       <c r="AC31" t="n">
-        <v>25</v>
+        <v>2008</v>
       </c>
       <c r="AD31" t="n">
-        <v>3.2128</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="32">
@@ -4299,10 +4299,10 @@
         </is>
       </c>
       <c r="AC32" t="n">
-        <v>82</v>
+        <v>9177.440000000001</v>
       </c>
       <c r="AD32" t="n">
-        <v>1.364878048780488</v>
+        <v>0.01219512195121951</v>
       </c>
     </row>
     <row r="33">
@@ -4419,10 +4419,10 @@
         </is>
       </c>
       <c r="AC33" t="n">
-        <v>9</v>
+        <v>299.25</v>
       </c>
       <c r="AD33" t="n">
-        <v>3.694444444444445</v>
+        <v>0.1111111111111111</v>
       </c>
     </row>
     <row r="34">
@@ -4539,10 +4539,10 @@
         </is>
       </c>
       <c r="AC34" t="n">
-        <v>6</v>
+        <v>130.98</v>
       </c>
       <c r="AD34" t="n">
-        <v>3.638333333333333</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="35">
@@ -4659,10 +4659,10 @@
         </is>
       </c>
       <c r="AC35" t="n">
-        <v>17</v>
+        <v>2772.53</v>
       </c>
       <c r="AD35" t="n">
-        <v>9.593529411764706</v>
+        <v>0.05882352941176471</v>
       </c>
     </row>
     <row r="36">
@@ -4779,10 +4779,10 @@
         </is>
       </c>
       <c r="AC36" t="n">
-        <v>90</v>
+        <v>24422.4</v>
       </c>
       <c r="AD36" t="n">
-        <v>3.015111111111111</v>
+        <v>0.01111111111111111</v>
       </c>
     </row>
     <row r="37">
@@ -4899,10 +4899,10 @@
         </is>
       </c>
       <c r="AC37" t="n">
-        <v>25</v>
+        <v>1971.75</v>
       </c>
       <c r="AD37" t="n">
-        <v>3.1548</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="38">
@@ -5019,10 +5019,10 @@
         </is>
       </c>
       <c r="AC38" t="n">
-        <v>11</v>
+        <v>300.3</v>
       </c>
       <c r="AD38" t="n">
-        <v>2.481818181818182</v>
+        <v>0.09090909090909091</v>
       </c>
     </row>
     <row r="39">
@@ -5139,10 +5139,10 @@
         </is>
       </c>
       <c r="AC39" t="n">
-        <v>52</v>
+        <v>4778.28</v>
       </c>
       <c r="AD39" t="n">
-        <v>1.767115384615385</v>
+        <v>0.01923076923076923</v>
       </c>
     </row>
     <row r="40">
@@ -5259,10 +5259,10 @@
         </is>
       </c>
       <c r="AC40" t="n">
-        <v>10</v>
+        <v>465.5</v>
       </c>
       <c r="AD40" t="n">
-        <v>4.654999999999999</v>
+        <v>0.09999999999999999</v>
       </c>
     </row>
     <row r="41">
@@ -5379,10 +5379,10 @@
         </is>
       </c>
       <c r="AC41" t="n">
-        <v>8</v>
+        <v>181.2</v>
       </c>
       <c r="AD41" t="n">
-        <v>2.83125</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="42">
@@ -5499,10 +5499,10 @@
         </is>
       </c>
       <c r="AC42" t="n">
-        <v>135</v>
+        <v>3491.1</v>
       </c>
       <c r="AD42" t="n">
-        <v>0.1915555555555556</v>
+        <v>0.007407407407407408</v>
       </c>
     </row>
     <row r="43">
@@ -5619,10 +5619,10 @@
         </is>
       </c>
       <c r="AC43" t="n">
-        <v>9</v>
+        <v>215.64</v>
       </c>
       <c r="AD43" t="n">
-        <v>2.662222222222222</v>
+        <v>0.1111111111111111</v>
       </c>
     </row>
     <row r="44">
@@ -5739,10 +5739,10 @@
         </is>
       </c>
       <c r="AC44" t="n">
-        <v>6</v>
+        <v>214.74</v>
       </c>
       <c r="AD44" t="n">
-        <v>5.965</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="45">
@@ -5859,10 +5859,10 @@
         </is>
       </c>
       <c r="AC45" t="n">
-        <v>13</v>
+        <v>461.5</v>
       </c>
       <c r="AD45" t="n">
-        <v>2.730769230769231</v>
+        <v>0.07692307692307693</v>
       </c>
     </row>
     <row r="46">
@@ -5979,10 +5979,10 @@
         </is>
       </c>
       <c r="AC46" t="n">
-        <v>36</v>
+        <v>5248.44</v>
       </c>
       <c r="AD46" t="n">
-        <v>4.049722222222222</v>
+        <v>0.02777777777777778</v>
       </c>
     </row>
     <row r="47">
@@ -6099,10 +6099,10 @@
         </is>
       </c>
       <c r="AC47" t="n">
-        <v>9</v>
+        <v>304.2</v>
       </c>
       <c r="AD47" t="n">
-        <v>3.755555555555555</v>
+        <v>0.1111111111111111</v>
       </c>
     </row>
     <row r="48">
@@ -6219,10 +6219,10 @@
         </is>
       </c>
       <c r="AC48" t="n">
-        <v>7</v>
+        <v>186.62</v>
       </c>
       <c r="AD48" t="n">
-        <v>3.808571428571429</v>
+        <v>0.1428571428571428</v>
       </c>
     </row>
     <row r="49">
@@ -6339,10 +6339,10 @@
         </is>
       </c>
       <c r="AC49" t="n">
-        <v>53</v>
+        <v>7864.669999999999</v>
       </c>
       <c r="AD49" t="n">
-        <v>2.799811320754717</v>
+        <v>0.01886792452830189</v>
       </c>
     </row>
     <row r="50">
@@ -6459,10 +6459,10 @@
         </is>
       </c>
       <c r="AC50" t="n">
-        <v>7</v>
+        <v>385.21</v>
       </c>
       <c r="AD50" t="n">
-        <v>7.861428571428571</v>
+        <v>0.1428571428571428</v>
       </c>
     </row>
     <row r="51">
@@ -6579,10 +6579,10 @@
         </is>
       </c>
       <c r="AC51" t="n">
-        <v>6</v>
+        <v>272.4</v>
       </c>
       <c r="AD51" t="n">
-        <v>7.566666666666666</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="52">
@@ -6699,10 +6699,10 @@
         </is>
       </c>
       <c r="AC52" t="n">
-        <v>370</v>
+        <v>3885</v>
       </c>
       <c r="AD52" t="n">
-        <v>0.02837837837837838</v>
+        <v>0.002702702702702703</v>
       </c>
     </row>
     <row r="53">
@@ -6819,10 +6819,10 @@
         </is>
       </c>
       <c r="AC53" t="n">
-        <v>3</v>
+        <v>92.16</v>
       </c>
       <c r="AD53" t="n">
-        <v>10.24</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="54">
@@ -6939,10 +6939,10 @@
         </is>
       </c>
       <c r="AC54" t="n">
-        <v>11</v>
+        <v>399.52</v>
       </c>
       <c r="AD54" t="n">
-        <v>3.301818181818182</v>
+        <v>0.09090909090909091</v>
       </c>
     </row>
     <row r="55">
@@ -7059,10 +7059,10 @@
         </is>
       </c>
       <c r="AC55" t="n">
-        <v>4</v>
+        <v>123.8</v>
       </c>
       <c r="AD55" t="n">
-        <v>7.7375</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="56">
@@ -7179,10 +7179,10 @@
         </is>
       </c>
       <c r="AC56" t="n">
-        <v>37</v>
+        <v>5754.61</v>
       </c>
       <c r="AD56" t="n">
-        <v>4.203513513513514</v>
+        <v>0.02702702702702703</v>
       </c>
     </row>
     <row r="57">
@@ -7299,10 +7299,10 @@
         </is>
       </c>
       <c r="AC57" t="n">
-        <v>18</v>
+        <v>4081.32</v>
       </c>
       <c r="AD57" t="n">
-        <v>12.59666666666667</v>
+        <v>0.05555555555555555</v>
       </c>
     </row>
     <row r="58">
@@ -7419,10 +7419,10 @@
         </is>
       </c>
       <c r="AC58" t="n">
-        <v>5</v>
+        <v>115.65</v>
       </c>
       <c r="AD58" t="n">
-        <v>4.625999999999999</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="59">
@@ -7539,10 +7539,10 @@
         </is>
       </c>
       <c r="AC59" t="n">
-        <v>8</v>
+        <v>208.24</v>
       </c>
       <c r="AD59" t="n">
-        <v>3.25375</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="60">
@@ -7659,10 +7659,10 @@
         </is>
       </c>
       <c r="AC60" t="n">
-        <v>13</v>
+        <v>521.3000000000001</v>
       </c>
       <c r="AD60" t="n">
-        <v>3.084615384615385</v>
+        <v>0.07692307692307691</v>
       </c>
     </row>
     <row r="61">
@@ -7779,10 +7779,10 @@
         </is>
       </c>
       <c r="AC61" t="n">
-        <v>26</v>
+        <v>2872.48</v>
       </c>
       <c r="AD61" t="n">
-        <v>4.24923076923077</v>
+        <v>0.03846153846153846</v>
       </c>
     </row>
     <row r="62">
@@ -7899,10 +7899,10 @@
         </is>
       </c>
       <c r="AC62" t="n">
-        <v>92</v>
+        <v>19809.44</v>
       </c>
       <c r="AD62" t="n">
-        <v>2.340434782608696</v>
+        <v>0.0108695652173913</v>
       </c>
     </row>
     <row r="63">
@@ -8019,10 +8019,10 @@
         </is>
       </c>
       <c r="AC63" t="n">
-        <v>133</v>
+        <v>2820.93</v>
       </c>
       <c r="AD63" t="n">
-        <v>0.1594736842105263</v>
+        <v>0.007518796992481203</v>
       </c>
     </row>
     <row r="64">
@@ -8139,10 +8139,10 @@
         </is>
       </c>
       <c r="AC64" t="n">
-        <v>8</v>
+        <v>291.52</v>
       </c>
       <c r="AD64" t="n">
-        <v>4.555</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="65">
@@ -8259,10 +8259,10 @@
         </is>
       </c>
       <c r="AC65" t="n">
-        <v>173</v>
+        <v>5266.12</v>
       </c>
       <c r="AD65" t="n">
-        <v>0.1759537572254335</v>
+        <v>0.005780346820809249</v>
       </c>
     </row>
     <row r="66">
@@ -8379,10 +8379,10 @@
         </is>
       </c>
       <c r="AC66" t="n">
-        <v>21</v>
+        <v>632.1</v>
       </c>
       <c r="AD66" t="n">
-        <v>1.433333333333333</v>
+        <v>0.04761904761904762</v>
       </c>
     </row>
     <row r="67">
@@ -8499,10 +8499,10 @@
         </is>
       </c>
       <c r="AC67" t="n">
-        <v>5</v>
+        <v>166.1</v>
       </c>
       <c r="AD67" t="n">
-        <v>6.644</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="68">
@@ -8619,10 +8619,10 @@
         </is>
       </c>
       <c r="AC68" t="n">
-        <v>10</v>
+        <v>341.8</v>
       </c>
       <c r="AD68" t="n">
-        <v>3.418</v>
+        <v>0.09999999999999999</v>
       </c>
     </row>
     <row r="69">
@@ -8739,10 +8739,10 @@
         </is>
       </c>
       <c r="AC69" t="n">
-        <v>17</v>
+        <v>3074.11</v>
       </c>
       <c r="AD69" t="n">
-        <v>10.63705882352941</v>
+        <v>0.05882352941176471</v>
       </c>
     </row>
     <row r="70">
@@ -8859,10 +8859,10 @@
         </is>
       </c>
       <c r="AC70" t="n">
-        <v>8</v>
+        <v>281.68</v>
       </c>
       <c r="AD70" t="n">
-        <v>4.40125</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="71">
@@ -8979,10 +8979,10 @@
         </is>
       </c>
       <c r="AC71" t="n">
-        <v>11</v>
+        <v>489.94</v>
       </c>
       <c r="AD71" t="n">
-        <v>4.049090909090909</v>
+        <v>0.09090909090909091</v>
       </c>
     </row>
     <row r="72">
@@ -9099,10 +9099,10 @@
         </is>
       </c>
       <c r="AC72" t="n">
-        <v>33</v>
+        <v>5057.25</v>
       </c>
       <c r="AD72" t="n">
-        <v>4.643939393939394</v>
+        <v>0.0303030303030303</v>
       </c>
     </row>
     <row r="73">
@@ -9219,10 +9219,10 @@
         </is>
       </c>
       <c r="AC73" t="n">
-        <v>82</v>
+        <v>24852.56</v>
       </c>
       <c r="AD73" t="n">
-        <v>3.696097560975609</v>
+        <v>0.01219512195121951</v>
       </c>
     </row>
     <row r="74">
@@ -9339,10 +9339,10 @@
         </is>
       </c>
       <c r="AC74" t="n">
-        <v>47</v>
+        <v>4721.150000000001</v>
       </c>
       <c r="AD74" t="n">
-        <v>2.137234042553191</v>
+        <v>0.02127659574468085</v>
       </c>
     </row>
     <row r="75">
@@ -9459,10 +9459,10 @@
         </is>
       </c>
       <c r="AC75" t="n">
-        <v>24</v>
+        <v>2882.88</v>
       </c>
       <c r="AD75" t="n">
-        <v>5.005</v>
+        <v>0.04166666666666666</v>
       </c>
     </row>
     <row r="76">
@@ -9579,10 +9579,10 @@
         </is>
       </c>
       <c r="AC76" t="n">
-        <v>9</v>
+        <v>320.4</v>
       </c>
       <c r="AD76" t="n">
-        <v>3.955555555555556</v>
+        <v>0.1111111111111111</v>
       </c>
     </row>
     <row r="77">
@@ -9699,10 +9699,10 @@
         </is>
       </c>
       <c r="AC77" t="n">
-        <v>158</v>
+        <v>13512.16</v>
       </c>
       <c r="AD77" t="n">
-        <v>0.5412658227848101</v>
+        <v>0.006329113924050633</v>
       </c>
     </row>
     <row r="78">
@@ -9819,10 +9819,10 @@
         </is>
       </c>
       <c r="AC78" t="n">
-        <v>12</v>
+        <v>531.36</v>
       </c>
       <c r="AD78" t="n">
-        <v>3.69</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="79">
@@ -9939,10 +9939,10 @@
         </is>
       </c>
       <c r="AC79" t="n">
-        <v>12</v>
+        <v>499.92</v>
       </c>
       <c r="AD79" t="n">
-        <v>3.471666666666666</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="80">
@@ -10059,10 +10059,10 @@
         </is>
       </c>
       <c r="AC80" t="n">
-        <v>17</v>
+        <v>2913.97</v>
       </c>
       <c r="AD80" t="n">
-        <v>10.08294117647059</v>
+        <v>0.05882352941176471</v>
       </c>
     </row>
     <row r="81">
@@ -10179,10 +10179,10 @@
         </is>
       </c>
       <c r="AC81" t="n">
-        <v>78</v>
+        <v>22823.58</v>
       </c>
       <c r="AD81" t="n">
-        <v>3.751410256410256</v>
+        <v>0.01282051282051282</v>
       </c>
     </row>
     <row r="82">
@@ -10299,10 +10299,10 @@
         </is>
       </c>
       <c r="AC82" t="n">
-        <v>34</v>
+        <v>4607.68</v>
       </c>
       <c r="AD82" t="n">
-        <v>3.985882352941177</v>
+        <v>0.02941176470588235</v>
       </c>
     </row>
     <row r="83">
@@ -10419,10 +10419,10 @@
         </is>
       </c>
       <c r="AC83" t="n">
-        <v>11</v>
+        <v>523.6</v>
       </c>
       <c r="AD83" t="n">
-        <v>4.327272727272727</v>
+        <v>0.09090909090909091</v>
       </c>
     </row>
     <row r="84">
@@ -10539,10 +10539,10 @@
         </is>
       </c>
       <c r="AC84" t="n">
-        <v>5</v>
+        <v>217.05</v>
       </c>
       <c r="AD84" t="n">
-        <v>8.681999999999999</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="85">
@@ -10659,10 +10659,10 @@
         </is>
       </c>
       <c r="AC85" t="n">
-        <v>138</v>
+        <v>9719.34</v>
       </c>
       <c r="AD85" t="n">
-        <v>0.5103623188405798</v>
+        <v>0.007246376811594204</v>
       </c>
     </row>
     <row r="86">
@@ -10779,10 +10779,10 @@
         </is>
       </c>
       <c r="AC86" t="n">
-        <v>48</v>
+        <v>4778.88</v>
       </c>
       <c r="AD86" t="n">
-        <v>2.074166666666667</v>
+        <v>0.02083333333333333</v>
       </c>
     </row>
     <row r="87">
@@ -10899,10 +10899,10 @@
         </is>
       </c>
       <c r="AC87" t="n">
-        <v>24</v>
+        <v>1702.08</v>
       </c>
       <c r="AD87" t="n">
-        <v>2.955</v>
+        <v>0.04166666666666667</v>
       </c>
     </row>
     <row r="88">
@@ -11019,10 +11019,10 @@
         </is>
       </c>
       <c r="AC88" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AD88" t="n">
         <v>1</v>
-      </c>
-      <c r="AD88" t="n">
-        <v>0.5</v>
       </c>
     </row>
     <row r="89">
@@ -11139,10 +11139,10 @@
         </is>
       </c>
       <c r="AC89" t="n">
-        <v>76</v>
+        <v>10862.68</v>
       </c>
       <c r="AD89" t="n">
-        <v>1.880657894736842</v>
+        <v>0.01315789473684211</v>
       </c>
     </row>
     <row r="90">
@@ -11259,10 +11259,10 @@
         </is>
       </c>
       <c r="AC90" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="AD90" t="n">
         <v>1</v>
-      </c>
-      <c r="AD90" t="n">
-        <v>0.51</v>
       </c>
     </row>
     <row r="91">
@@ -11379,10 +11379,10 @@
         </is>
       </c>
       <c r="AC91" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="AD91" t="n">
         <v>1</v>
-      </c>
-      <c r="AD91" t="n">
-        <v>0.51</v>
       </c>
     </row>
     <row r="92">
@@ -11499,10 +11499,10 @@
         </is>
       </c>
       <c r="AC92" t="n">
-        <v>11</v>
+        <v>387.75</v>
       </c>
       <c r="AD92" t="n">
-        <v>3.204545454545455</v>
+        <v>0.09090909090909091</v>
       </c>
     </row>
     <row r="93">
@@ -11619,10 +11619,10 @@
         </is>
       </c>
       <c r="AC93" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="AD93" t="n">
         <v>1</v>
-      </c>
-      <c r="AD93" t="n">
-        <v>0.51</v>
       </c>
     </row>
     <row r="94">
@@ -11739,10 +11739,10 @@
         </is>
       </c>
       <c r="AC94" t="n">
-        <v>23</v>
+        <v>2202.71</v>
       </c>
       <c r="AD94" t="n">
-        <v>4.163913043478261</v>
+        <v>0.04347826086956522</v>
       </c>
     </row>
     <row r="95">
@@ -11859,10 +11859,10 @@
         </is>
       </c>
       <c r="AC95" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AD95" t="n">
         <v>1</v>
-      </c>
-      <c r="AD95" t="n">
-        <v>0.5</v>
       </c>
     </row>
     <row r="96">
@@ -11979,10 +11979,10 @@
         </is>
       </c>
       <c r="AC96" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AD96" t="n">
         <v>1</v>
-      </c>
-      <c r="AD96" t="n">
-        <v>0.5</v>
       </c>
     </row>
     <row r="97">
@@ -12099,10 +12099,10 @@
         </is>
       </c>
       <c r="AC97" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="AD97" t="n">
         <v>1</v>
-      </c>
-      <c r="AD97" t="n">
-        <v>0.51</v>
       </c>
     </row>
     <row r="98">
@@ -12219,10 +12219,10 @@
         </is>
       </c>
       <c r="AC98" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AD98" t="n">
         <v>1</v>
-      </c>
-      <c r="AD98" t="n">
-        <v>0.5</v>
       </c>
     </row>
     <row r="99">
@@ -12339,10 +12339,10 @@
         </is>
       </c>
       <c r="AC99" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="AD99" t="n">
         <v>1</v>
-      </c>
-      <c r="AD99" t="n">
-        <v>0.51</v>
       </c>
     </row>
     <row r="100">
@@ -12459,10 +12459,10 @@
         </is>
       </c>
       <c r="AC100" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AD100" t="n">
         <v>1</v>
-      </c>
-      <c r="AD100" t="n">
-        <v>0.5</v>
       </c>
     </row>
     <row r="101">
@@ -12579,10 +12579,10 @@
         </is>
       </c>
       <c r="AC101" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AD101" t="n">
         <v>1</v>
-      </c>
-      <c r="AD101" t="n">
-        <v>0.5</v>
       </c>
     </row>
     <row r="102">
@@ -12699,10 +12699,10 @@
         </is>
       </c>
       <c r="AC102" t="n">
-        <v>18</v>
+        <v>2369.7</v>
       </c>
       <c r="AD102" t="n">
-        <v>7.313888888888889</v>
+        <v>0.05555555555555555</v>
       </c>
     </row>
     <row r="103">
@@ -12819,10 +12819,10 @@
         </is>
       </c>
       <c r="AC103" t="n">
-        <v>6</v>
+        <v>180.48</v>
       </c>
       <c r="AD103" t="n">
-        <v>5.013333333333333</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="104">
@@ -12939,10 +12939,10 @@
         </is>
       </c>
       <c r="AC104" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AD104" t="n">
         <v>1</v>
-      </c>
-      <c r="AD104" t="n">
-        <v>0.5</v>
       </c>
     </row>
     <row r="105">
@@ -13059,10 +13059,10 @@
         </is>
       </c>
       <c r="AC105" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AD105" t="n">
         <v>1</v>
-      </c>
-      <c r="AD105" t="n">
-        <v>0.5</v>
       </c>
     </row>
     <row r="106">
@@ -13179,10 +13179,10 @@
         </is>
       </c>
       <c r="AC106" t="n">
-        <v>227</v>
+        <v>16816.16</v>
       </c>
       <c r="AD106" t="n">
-        <v>0.3263436123348017</v>
+        <v>0.004405286343612334</v>
       </c>
     </row>
     <row r="107">
@@ -13299,10 +13299,10 @@
         </is>
       </c>
       <c r="AC107" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AD107" t="n">
         <v>1</v>
-      </c>
-      <c r="AD107" t="n">
-        <v>0.5</v>
       </c>
     </row>
     <row r="108">
@@ -13419,10 +13419,10 @@
         </is>
       </c>
       <c r="AC108" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="AD108" t="n">
         <v>1</v>
-      </c>
-      <c r="AD108" t="n">
-        <v>0.51</v>
       </c>
     </row>
     <row r="109">
@@ -13539,10 +13539,10 @@
         </is>
       </c>
       <c r="AC109" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AD109" t="n">
         <v>1</v>
-      </c>
-      <c r="AD109" t="n">
-        <v>0.5</v>
       </c>
     </row>
     <row r="110">
@@ -13659,10 +13659,10 @@
         </is>
       </c>
       <c r="AC110" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="AD110" t="n">
         <v>1</v>
-      </c>
-      <c r="AD110" t="n">
-        <v>0.52</v>
       </c>
     </row>
     <row r="111">
@@ -13779,10 +13779,10 @@
         </is>
       </c>
       <c r="AC111" t="n">
-        <v>34</v>
+        <v>4083.06</v>
       </c>
       <c r="AD111" t="n">
-        <v>3.532058823529412</v>
+        <v>0.02941176470588235</v>
       </c>
     </row>
     <row r="112">
@@ -13899,10 +13899,10 @@
         </is>
       </c>
       <c r="AC112" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AD112" t="n">
         <v>1</v>
-      </c>
-      <c r="AD112" t="n">
-        <v>0.5</v>
       </c>
     </row>
     <row r="113">
@@ -14019,10 +14019,10 @@
         </is>
       </c>
       <c r="AC113" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AD113" t="n">
         <v>1</v>
-      </c>
-      <c r="AD113" t="n">
-        <v>0.5</v>
       </c>
     </row>
     <row r="114">
@@ -14139,10 +14139,10 @@
         </is>
       </c>
       <c r="AC114" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AD114" t="n">
         <v>1</v>
-      </c>
-      <c r="AD114" t="n">
-        <v>0.5</v>
       </c>
     </row>
     <row r="115">
@@ -14259,10 +14259,10 @@
         </is>
       </c>
       <c r="AC115" t="n">
-        <v>9</v>
+        <v>320.76</v>
       </c>
       <c r="AD115" t="n">
-        <v>3.96</v>
+        <v>0.1111111111111111</v>
       </c>
     </row>
     <row r="116">
@@ -14379,10 +14379,10 @@
         </is>
       </c>
       <c r="AC116" t="n">
-        <v>10</v>
+        <v>454.4</v>
       </c>
       <c r="AD116" t="n">
-        <v>4.544</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="117">
@@ -14499,10 +14499,10 @@
         </is>
       </c>
       <c r="AC117" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AD117" t="n">
         <v>1</v>
-      </c>
-      <c r="AD117" t="n">
-        <v>0.5</v>
       </c>
     </row>
     <row r="118">
@@ -14619,10 +14619,10 @@
         </is>
       </c>
       <c r="AC118" t="n">
-        <v>47</v>
+        <v>5008.79</v>
       </c>
       <c r="AD118" t="n">
-        <v>2.267446808510638</v>
+        <v>0.02127659574468085</v>
       </c>
     </row>
     <row r="119">
@@ -14739,10 +14739,10 @@
         </is>
       </c>
       <c r="AC119" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AD119" t="n">
         <v>1</v>
-      </c>
-      <c r="AD119" t="n">
-        <v>0.5</v>
       </c>
     </row>
     <row r="120">
@@ -14859,10 +14859,10 @@
         </is>
       </c>
       <c r="AC120" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="AD120" t="n">
         <v>1</v>
-      </c>
-      <c r="AD120" t="n">
-        <v>0.51</v>
       </c>
     </row>
     <row r="121">
@@ -14979,10 +14979,10 @@
         </is>
       </c>
       <c r="AC121" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="AD121" t="n">
         <v>1</v>
-      </c>
-      <c r="AD121" t="n">
-        <v>0.51</v>
       </c>
     </row>
     <row r="122">
@@ -15099,10 +15099,10 @@
         </is>
       </c>
       <c r="AC122" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AD122" t="n">
         <v>1</v>
-      </c>
-      <c r="AD122" t="n">
-        <v>0.5</v>
       </c>
     </row>
     <row r="123">
@@ -15219,10 +15219,10 @@
         </is>
       </c>
       <c r="AC123" t="n">
-        <v>7</v>
+        <v>245.91</v>
       </c>
       <c r="AD123" t="n">
-        <v>5.018571428571429</v>
+        <v>0.1428571428571428</v>
       </c>
     </row>
     <row r="124">
@@ -15339,10 +15339,10 @@
         </is>
       </c>
       <c r="AC124" t="n">
-        <v>6</v>
+        <v>172.26</v>
       </c>
       <c r="AD124" t="n">
-        <v>4.785</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="125">
@@ -15459,10 +15459,10 @@
         </is>
       </c>
       <c r="AC125" t="n">
-        <v>6</v>
+        <v>165.6</v>
       </c>
       <c r="AD125" t="n">
-        <v>4.600000000000001</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="126">
@@ -15579,10 +15579,10 @@
         </is>
       </c>
       <c r="AC126" t="n">
-        <v>10</v>
+        <v>452.4</v>
       </c>
       <c r="AD126" t="n">
-        <v>4.524</v>
+        <v>0.09999999999999999</v>
       </c>
     </row>
     <row r="127">
@@ -15699,10 +15699,10 @@
         </is>
       </c>
       <c r="AC127" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AD127" t="n">
         <v>1</v>
-      </c>
-      <c r="AD127" t="n">
-        <v>0.5</v>
       </c>
     </row>
     <row r="128">
@@ -15819,10 +15819,10 @@
         </is>
       </c>
       <c r="AC128" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="AD128" t="n">
         <v>1</v>
-      </c>
-      <c r="AD128" t="n">
-        <v>0.53</v>
       </c>
     </row>
     <row r="129">
@@ -15939,10 +15939,10 @@
         </is>
       </c>
       <c r="AC129" t="n">
-        <v>3</v>
+        <v>113.88</v>
       </c>
       <c r="AD129" t="n">
-        <v>12.65333333333333</v>
+        <v>0.3333333333333334</v>
       </c>
     </row>
     <row r="130">
@@ -16059,10 +16059,10 @@
         </is>
       </c>
       <c r="AC130" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AD130" t="n">
         <v>1</v>
-      </c>
-      <c r="AD130" t="n">
-        <v>0.5</v>
       </c>
     </row>
     <row r="131">
@@ -16179,10 +16179,10 @@
         </is>
       </c>
       <c r="AC131" t="n">
-        <v>11</v>
+        <v>462.88</v>
       </c>
       <c r="AD131" t="n">
-        <v>3.825454545454545</v>
+        <v>0.09090909090909091</v>
       </c>
     </row>
     <row r="132">
@@ -16299,10 +16299,10 @@
         </is>
       </c>
       <c r="AC132" t="n">
-        <v>24</v>
+        <v>2369.52</v>
       </c>
       <c r="AD132" t="n">
-        <v>4.11375</v>
+        <v>0.04166666666666667</v>
       </c>
     </row>
     <row r="133">
@@ -16419,10 +16419,10 @@
         </is>
       </c>
       <c r="AC133" t="n">
-        <v>7</v>
+        <v>295.75</v>
       </c>
       <c r="AD133" t="n">
-        <v>6.035714285714286</v>
+        <v>0.1428571428571428</v>
       </c>
     </row>
     <row r="134">
@@ -16539,10 +16539,10 @@
         </is>
       </c>
       <c r="AC134" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="AD134" t="n">
         <v>1</v>
-      </c>
-      <c r="AD134" t="n">
-        <v>0.53</v>
       </c>
     </row>
     <row r="135">
@@ -16659,10 +16659,10 @@
         </is>
       </c>
       <c r="AC135" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AD135" t="n">
         <v>1</v>
-      </c>
-      <c r="AD135" t="n">
-        <v>0.5</v>
       </c>
     </row>
     <row r="136">
@@ -16779,10 +16779,10 @@
         </is>
       </c>
       <c r="AC136" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AD136" t="n">
         <v>1</v>
-      </c>
-      <c r="AD136" t="n">
-        <v>0.5</v>
       </c>
     </row>
     <row r="137">
@@ -16899,10 +16899,10 @@
         </is>
       </c>
       <c r="AC137" t="n">
-        <v>5</v>
+        <v>200.8</v>
       </c>
       <c r="AD137" t="n">
-        <v>8.032</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="138">
@@ -17019,10 +17019,10 @@
         </is>
       </c>
       <c r="AC138" t="n">
-        <v>8</v>
+        <v>350.96</v>
       </c>
       <c r="AD138" t="n">
-        <v>5.48375</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="139">
@@ -17139,10 +17139,10 @@
         </is>
       </c>
       <c r="AC139" t="n">
-        <v>160</v>
+        <v>13792</v>
       </c>
       <c r="AD139" t="n">
-        <v>0.5387500000000001</v>
+        <v>0.00625</v>
       </c>
     </row>
     <row r="140">
@@ -17259,10 +17259,10 @@
         </is>
       </c>
       <c r="AC140" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="AD140" t="n">
         <v>1</v>
-      </c>
-      <c r="AD140" t="n">
-        <v>0.53</v>
       </c>
     </row>
     <row r="141">
@@ -17379,10 +17379,10 @@
         </is>
       </c>
       <c r="AC141" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AD141" t="n">
         <v>1</v>
-      </c>
-      <c r="AD141" t="n">
-        <v>0.5</v>
       </c>
     </row>
     <row r="142">
@@ -17499,10 +17499,10 @@
         </is>
       </c>
       <c r="AC142" t="n">
-        <v>73</v>
+        <v>20324.66</v>
       </c>
       <c r="AD142" t="n">
-        <v>3.813972602739726</v>
+        <v>0.0136986301369863</v>
       </c>
     </row>
     <row r="143">
@@ -17619,10 +17619,10 @@
         </is>
       </c>
       <c r="AC143" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AD143" t="n">
         <v>1</v>
-      </c>
-      <c r="AD143" t="n">
-        <v>0.5</v>
       </c>
     </row>
     <row r="144">
@@ -17739,10 +17739,10 @@
         </is>
       </c>
       <c r="AC144" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AD144" t="n">
         <v>1</v>
-      </c>
-      <c r="AD144" t="n">
-        <v>0.5</v>
       </c>
     </row>
     <row r="145">
@@ -17859,10 +17859,10 @@
         </is>
       </c>
       <c r="AC145" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="AD145" t="n">
         <v>1</v>
-      </c>
-      <c r="AD145" t="n">
-        <v>0.51</v>
       </c>
     </row>
     <row r="146">
@@ -17979,10 +17979,10 @@
         </is>
       </c>
       <c r="AC146" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AD146" t="n">
         <v>1</v>
-      </c>
-      <c r="AD146" t="n">
-        <v>0.5</v>
       </c>
     </row>
     <row r="147">
@@ -18099,10 +18099,10 @@
         </is>
       </c>
       <c r="AC147" t="n">
-        <v>4</v>
+        <v>172.96</v>
       </c>
       <c r="AD147" t="n">
-        <v>10.81</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="148">
@@ -18219,10 +18219,10 @@
         </is>
       </c>
       <c r="AC148" t="n">
-        <v>17</v>
+        <v>2799.9</v>
       </c>
       <c r="AD148" t="n">
-        <v>9.688235294117646</v>
+        <v>0.05882352941176471</v>
       </c>
     </row>
     <row r="149">
@@ -18339,10 +18339,10 @@
         </is>
       </c>
       <c r="AC149" t="n">
-        <v>7</v>
+        <v>232.19</v>
       </c>
       <c r="AD149" t="n">
-        <v>4.738571428571428</v>
+        <v>0.1428571428571429</v>
       </c>
     </row>
     <row r="150">
@@ -18459,10 +18459,10 @@
         </is>
       </c>
       <c r="AC150" t="n">
-        <v>48</v>
+        <v>5203.200000000001</v>
       </c>
       <c r="AD150" t="n">
-        <v>2.258333333333333</v>
+        <v>0.02083333333333333</v>
       </c>
     </row>
     <row r="151">
@@ -18579,10 +18579,10 @@
         </is>
       </c>
       <c r="AC151" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AD151" t="n">
         <v>1</v>
-      </c>
-      <c r="AD151" t="n">
-        <v>0.5</v>
       </c>
     </row>
     <row r="152">
@@ -18699,10 +18699,10 @@
         </is>
       </c>
       <c r="AC152" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="AD152" t="n">
         <v>1</v>
-      </c>
-      <c r="AD152" t="n">
-        <v>0.51</v>
       </c>
     </row>
     <row r="153">
@@ -18819,10 +18819,10 @@
         </is>
       </c>
       <c r="AC153" t="n">
-        <v>12</v>
+        <v>424.68</v>
       </c>
       <c r="AD153" t="n">
-        <v>2.949166666666667</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="154">
@@ -18939,10 +18939,10 @@
         </is>
       </c>
       <c r="AC154" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="AD154" t="n">
         <v>1</v>
-      </c>
-      <c r="AD154" t="n">
-        <v>0.52</v>
       </c>
     </row>
     <row r="155">
@@ -19059,10 +19059,10 @@
         </is>
       </c>
       <c r="AC155" t="n">
-        <v>9</v>
+        <v>408.0600000000001</v>
       </c>
       <c r="AD155" t="n">
-        <v>5.037777777777778</v>
+        <v>0.1111111111111111</v>
       </c>
     </row>
     <row r="156">
@@ -19179,10 +19179,10 @@
         </is>
       </c>
       <c r="AC156" t="n">
-        <v>6</v>
+        <v>212.88</v>
       </c>
       <c r="AD156" t="n">
-        <v>5.913333333333333</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="157">
@@ -19299,10 +19299,10 @@
         </is>
       </c>
       <c r="AC157" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AD157" t="n">
         <v>1</v>
-      </c>
-      <c r="AD157" t="n">
-        <v>0.5</v>
       </c>
     </row>
     <row r="158">
@@ -19419,10 +19419,10 @@
         </is>
       </c>
       <c r="AC158" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AD158" t="n">
         <v>1</v>
-      </c>
-      <c r="AD158" t="n">
-        <v>0.5</v>
       </c>
     </row>
     <row r="159">
@@ -19539,10 +19539,10 @@
         </is>
       </c>
       <c r="AC159" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="AD159" t="n">
         <v>1</v>
-      </c>
-      <c r="AD159" t="n">
-        <v>0.51</v>
       </c>
     </row>
     <row r="160">
@@ -19659,10 +19659,10 @@
         </is>
       </c>
       <c r="AC160" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AD160" t="n">
         <v>1</v>
-      </c>
-      <c r="AD160" t="n">
-        <v>0.5</v>
       </c>
     </row>
     <row r="161">
@@ -19779,10 +19779,10 @@
         </is>
       </c>
       <c r="AC161" t="n">
-        <v>34</v>
+        <v>2934.54</v>
       </c>
       <c r="AD161" t="n">
-        <v>2.538529411764706</v>
+        <v>0.02941176470588235</v>
       </c>
     </row>
     <row r="162">
@@ -19899,10 +19899,10 @@
         </is>
       </c>
       <c r="AC162" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AD162" t="n">
         <v>1</v>
-      </c>
-      <c r="AD162" t="n">
-        <v>0.5</v>
       </c>
     </row>
     <row r="163">
@@ -20019,10 +20019,10 @@
         </is>
       </c>
       <c r="AC163" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AD163" t="n">
         <v>1</v>
-      </c>
-      <c r="AD163" t="n">
-        <v>0.5</v>
       </c>
     </row>
     <row r="164">
@@ -20139,10 +20139,10 @@
         </is>
       </c>
       <c r="AC164" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AD164" t="n">
         <v>1</v>
-      </c>
-      <c r="AD164" t="n">
-        <v>0.5</v>
       </c>
     </row>
     <row r="165">
@@ -20259,10 +20259,10 @@
         </is>
       </c>
       <c r="AC165" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AD165" t="n">
         <v>1</v>
-      </c>
-      <c r="AD165" t="n">
-        <v>0.5</v>
       </c>
     </row>
   </sheetData>
